--- a/GestiBank - Modèles et Services.xlsx
+++ b/GestiBank - Modèles et Services.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Adrien/Documents/Adrien/Travail/Global Knowledge/GestiBank/GestiBank-Divers/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0BDA0976-7DFE-CC4B-96F0-F93B99430D8B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28755" windowHeight="16395"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28760" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modèles" sheetId="2" r:id="rId1"/>
     <sheet name="DAO" sheetId="3" r:id="rId2"/>
-    <sheet name="Service" sheetId="4" r:id="rId3"/>
+    <sheet name="Services" sheetId="4" r:id="rId3"/>
     <sheet name="Web Services" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="151">
   <si>
     <t>Nom</t>
   </si>
@@ -118,9 +124,6 @@
     <t>situationFamiliale</t>
   </si>
   <si>
-    <t>Objet Document</t>
-  </si>
-  <si>
     <t>comptes</t>
   </si>
   <si>
@@ -361,94 +364,124 @@
     <t>demandes</t>
   </si>
   <si>
-    <t>Liste&lt;Objet DemandeClient&gt;</t>
-  </si>
-  <si>
     <t>http://localhost:9090/GestiBankBackEnd</t>
   </si>
   <si>
-    <t>ConseillerController</t>
-  </si>
-  <si>
-    <t>findAllConseillers</t>
-  </si>
-  <si>
     <t>Get</t>
   </si>
   <si>
-    <t>/conseillers</t>
-  </si>
-  <si>
     <t>/{id}</t>
   </si>
   <si>
     <t>Post</t>
   </si>
   <si>
-    <t>createConseiller</t>
-  </si>
-  <si>
-    <t>findConseillerById</t>
-  </si>
-  <si>
-    <t>deleteConseiller</t>
-  </si>
-  <si>
-    <t>updateConseiller</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
     <t>Put</t>
   </si>
   <si>
-    <t>Objet Conseiller</t>
-  </si>
-  <si>
-    <t>Rechercher tous les conseillers</t>
-  </si>
-  <si>
-    <t>Recherche un conseiller avec son id</t>
-  </si>
-  <si>
-    <t>Créer un conseiller</t>
-  </si>
-  <si>
-    <t>Supprimer un conseiller</t>
-  </si>
-  <si>
-    <t>Mettre à jour un conseiller</t>
-  </si>
-  <si>
     <t>GestiBank - DAO</t>
   </si>
   <si>
     <t>DAO</t>
   </si>
   <si>
-    <t>ConseillerDAO</t>
-  </si>
-  <si>
-    <t>deleteConseillerById</t>
-  </si>
-  <si>
     <t>Booléen</t>
   </si>
   <si>
-    <t>GestiBank - Service</t>
-  </si>
-  <si>
-    <t>ConseillerService</t>
-  </si>
-  <si>
-    <t>updateConseillerById</t>
+    <t>Liste&lt;Objet Demande&gt;</t>
+  </si>
+  <si>
+    <t>idAdresse</t>
+  </si>
+  <si>
+    <t>idContact</t>
+  </si>
+  <si>
+    <t>Objet Documents</t>
+  </si>
+  <si>
+    <t>idDocuments</t>
+  </si>
+  <si>
+    <t>idIdentite</t>
+  </si>
+  <si>
+    <t>idSituationFamiliale</t>
+  </si>
+  <si>
+    <t>ModeleDAO</t>
+  </si>
+  <si>
+    <t>findAllModeles</t>
+  </si>
+  <si>
+    <t>Liste&lt;Objet Modele&gt;</t>
+  </si>
+  <si>
+    <t>Rechercher tous les modeles</t>
+  </si>
+  <si>
+    <t>findModeleById</t>
+  </si>
+  <si>
+    <t>Objet Modele</t>
+  </si>
+  <si>
+    <t>Recherche un modele avec son id</t>
+  </si>
+  <si>
+    <t>Créer un modele</t>
+  </si>
+  <si>
+    <t>Supprimer un modele</t>
+  </si>
+  <si>
+    <t>Mettre à jour un modele</t>
+  </si>
+  <si>
+    <t>idModele</t>
+  </si>
+  <si>
+    <t>updateModele</t>
+  </si>
+  <si>
+    <t>createModele</t>
+  </si>
+  <si>
+    <t>deleteModele</t>
+  </si>
+  <si>
+    <t>ModeleController</t>
+  </si>
+  <si>
+    <t>deleteModeleById</t>
+  </si>
+  <si>
+    <t>updateModeleById</t>
+  </si>
+  <si>
+    <t>Mettre à jour un modele avec son id</t>
+  </si>
+  <si>
+    <t>ModeleService</t>
+  </si>
+  <si>
+    <t>GestiBank - Services</t>
+  </si>
+  <si>
+    <t>/modeles</t>
+  </si>
+  <si>
+    <t>Supprimer un modele ec son id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -646,31 +679,43 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,7 +809,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,9 +842,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -832,6 +894,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1007,21 +1086,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1029,18 +1108,18 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1057,38 +1136,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1096,935 +1175,990 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="B11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="9" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="8" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="B14" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="B17" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
       <c r="D17" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="E19" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="7" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="7" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="B27" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E28" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="8" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="8" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="E32" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="7" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="7" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="8" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E43" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="8" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E72" s="8" t="s">
+      <c r="E77" s="8" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="C31:C37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2032,140 +2166,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
@@ -2259,14 +2391,14 @@
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2342,20 +2474,10 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A5:A9"/>
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2363,355 +2485,308 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
+    <mergeCell ref="A5:A9"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2724,45 +2799,45 @@
       <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="B3" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="11" t="s">
         <v>0</v>
       </c>
@@ -2782,131 +2857,131 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="F10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="F11" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="F12" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="21"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
@@ -3185,7 +3260,7 @@
     <mergeCell ref="B6:B7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
